--- a/IPL/Rajasthan Royals/Yashasvi Jaiswal .xlsx
+++ b/IPL/Rajasthan Royals/Yashasvi Jaiswal .xlsx
@@ -408,16 +408,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -448,16 +448,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D4" t="str">
+        <v>36</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
         <v>2</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/IPL/Rajasthan Royals/Yashasvi Jaiswal .xlsx
+++ b/IPL/Rajasthan Royals/Yashasvi Jaiswal .xlsx
@@ -408,13 +408,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,16 +428,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D3" t="str">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -448,16 +448,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
